--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Languedoc-Roussillon/Liste_des_espèces_végétales_protégées_en_Languedoc-Roussillon.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_en_Languedoc-Roussillon/Liste_des_espèces_végétales_protégées_en_Languedoc-Roussillon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Languedoc-Roussillon</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Languedoc-Roussillon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces protégées en Languedoc-Roussillon est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Languedoc-Roussillon, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 29 octobre 1997[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces protégées en Languedoc-Roussillon est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire de la région Languedoc-Roussillon, en complément de celles qui sont déjà protégées sur le territoire métropolitain. Elle a été publiée dans un arrêté du 29 octobre 1997.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Languedoc-Roussillon</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Languedoc-Roussillon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Ptéridophytes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Asplenium marinum L., Doradille marine
-Asplenium obovatum Viv.[2], Doradille à feuilles obovales
+Asplenium obovatum Viv., Doradille à feuilles obovales
 Cheilanthes hispanica Mett., Cheilanthes d'Espagne
 Ophioglossum lusitanicum L., Ophioglosse du Portugal
 Selaginella denticulata (L.) Spring., Sélaginelle denticulée
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Languedoc-Roussillon</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Languedoc-Roussillon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Phanérogames gymnospermes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ephedra major Host., Grand Ephédra
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Languedoc-Roussillon</t>
+          <t>Liste_des_espèces_végétales_protégées_en_Languedoc-Roussillon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monocotylédones
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Allium commutatum Guss., Ail des îles
 Althenia filiformis Petit., Althénia filiforme
 Andropogon distachyos L., Andropogon à deux épis
@@ -591,7 +613,43 @@
 Hyacinthoides italica (L.) Rothm., Scille d'Italie
 Ophrys exaltata subsp. splendida (Gölz &amp; Reinhard) R.Soca anciennement Ophrys splendida Gölz &amp; Reinhard., Ophrys brillant
 Romulea columnae Sebast. &amp; Mauri, Romulée à petites fleurs
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_en_Languedoc-Roussillon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_en_Languedoc-Roussillon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Phanérogames angiospermes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Achillea maritima (L.) Ehrend. &amp; Y.P.Guo anciennement Otanthus maritimus (L.) Hoffmanns. &amp; Link, Diotis blanc
 Anagyris foetida L., Anagyre fétide
 Arenaria modesta Dufour., Sabline modeste
@@ -639,7 +697,7 @@
 Onopordum acaulon L., Onopordon à tige courte
 Onosma arenaria Waldst. &amp; Kit., Orcanette des sables
 Pallenis maritima (L.) Greuter anciennement Asteriscus maritimus (L.) Less., Astérolide maritime
-Persicaria salicifolia (Willd.) Assenov [1]anciennement Polygonum salicifolium Brouss. &amp; Willd., Renouée à feuille de saule
+Persicaria salicifolia (Willd.) Assenov anciennement Polygonum salicifolium Brouss. &amp; Willd., Renouée à feuille de saule
 Phyteuma rupicola Braun.-Blanq., Raiponce des rochers
 Plantago cornuti Gouan., Plantain de Cornut
 Polycarpon polycarpoides (Biv.) Zodda., Polycarpon Faux-Péplis
